--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V3 Linking Workbooks/W1_ExpensesQ3.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V3 Linking Workbooks/W1_ExpensesQ3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 1\W1-V3 Linking Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D5885D-99AE-4AEA-ABE3-8EBA15C3711D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43" windowWidth="37397" windowHeight="15994" activeTab="3"/>
+    <workbookView xWindow="11508" yWindow="6180" windowWidth="11544" windowHeight="6192" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sean" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="WeekEnding" localSheetId="1">Uma!$C$3</definedName>
     <definedName name="WeekEnding">Sean!$C$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -513,15 +514,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Do Not Type" xfId="4"/>
+    <cellStyle name="Do Not Type" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input Custom" xfId="2"/>
-    <cellStyle name="Instructions" xfId="5"/>
+    <cellStyle name="Input Custom" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Instructions" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Totals" xfId="3"/>
+    <cellStyle name="Table Totals" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -572,7 +573,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Expense Report" defaultPivotStyle="PivotStyleLight15">
-    <tableStyle name="Expense Report" pivot="0" count="3">
+    <tableStyle name="Expense Report" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="totalRow" dxfId="1"/>
       <tableStyleElement type="lastColumn" dxfId="0"/>
@@ -898,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -907,16 +908,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" customWidth="1"/>
-    <col min="8" max="11" width="9.453125"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="11" width="9.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -928,8 +929,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
@@ -937,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
@@ -945,7 +946,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -962,7 +963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -983,7 +984,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>412.72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1095,14 +1096,14 @@
         <v>1143.1199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
@@ -1111,7 +1112,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>68.67</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1186,14 +1187,14 @@
         <v>1143.1199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1203,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>158.96</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -1275,14 +1276,14 @@
         <v>2848.96</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
@@ -1303,14 +1304,14 @@
         <v>5135.2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1325,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1334,16 +1335,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="17.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -1355,8 +1356,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1500,14 +1501,14 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
@@ -1516,7 +1517,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>248.95</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1587,14 +1588,14 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1604,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>86.64</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>165.1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>227.70000000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -1684,14 +1685,14 @@
         <v>479.44000000000005</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
@@ -1712,14 +1713,14 @@
         <v>1229.44</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1734,7 +1735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1743,16 +1744,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="17.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -1764,8 +1765,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>739.68000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1931,14 +1932,14 @@
         <v>919.06000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
@@ -1947,7 +1948,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>349.56</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -2018,14 +2019,14 @@
         <v>919.06000000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
@@ -2034,7 +2035,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>268.79999999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>85.48</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -2111,14 +2112,14 @@
         <v>354.28</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
@@ -2139,14 +2140,14 @@
         <v>2192.4</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2161,7 +2162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -2172,16 +2173,16 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="17.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -2193,8 +2194,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>13</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>1152.4000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>242.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>107.38000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -2395,14 +2396,14 @@
         <v>2437.1800000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
@@ -2411,7 +2412,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>667.18000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -2516,14 +2517,14 @@
         <v>2437.1800000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
@@ -2532,7 +2533,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>245.60000000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>2855.1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>496.5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>85.48</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -2637,14 +2638,14 @@
         <v>3682.68</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
@@ -2665,14 +2666,14 @@
         <v>8557.0400000000009</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
